--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,6 +46,10 @@
     </font>
     <font>
       <sz val="14"/>
+    </font>
+    <font>
+      <name val="Wingdings"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -172,6 +176,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,7 +813,11 @@
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="8" t="inlineStr"/>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="8" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
@@ -883,7 +883,11 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="8" t="inlineStr"/>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="8" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
@@ -931,7 +931,11 @@
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="8" t="inlineStr"/>
+      <c r="C35" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="8" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
@@ -659,7 +659,11 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr"/>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="8" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
@@ -593,7 +593,11 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr"/>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="8" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
@@ -571,7 +571,11 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr"/>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="8" t="n">
@@ -582,7 +586,11 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr"/>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="8" t="n">
@@ -810,7 +818,11 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="8" t="inlineStr"/>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="8" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
@@ -627,7 +627,11 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr"/>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="8" t="n">
@@ -649,7 +653,11 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr"/>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="8" t="n">
@@ -697,7 +705,11 @@
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="8" t="inlineStr"/>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="8" t="n">
@@ -708,7 +720,11 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="8" t="inlineStr"/>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="8" t="n">
@@ -752,7 +768,11 @@
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="8" t="inlineStr"/>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="8" t="n">
@@ -763,7 +783,11 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="8" t="inlineStr"/>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="8" t="n">
@@ -848,7 +872,11 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="8" t="inlineStr"/>
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="8" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
@@ -887,7 +887,11 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="8" t="inlineStr"/>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="8" t="n">
@@ -920,7 +924,11 @@
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="8" t="inlineStr"/>
+      <c r="C30" s="12" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="8" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
@@ -38,6 +38,10 @@
       <sz val="14"/>
     </font>
     <font>
+      <name val="Wingdings"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <sz val="12"/>
     </font>
     <font>
@@ -46,10 +50,6 @@
     </font>
     <font>
       <sz val="14"/>
-    </font>
-    <font>
-      <name val="Wingdings"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -161,24 +161,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +530,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C37"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -537,483 +540,487 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="10" t="n"/>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="A2" s="11" t="n"/>
+      <c r="B2" s="11" t="n"/>
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>MAT12</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr"/>
+      <c r="C6" s="9" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C7" s="12" t="inlineStr">
+      <c r="C7" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr"/>
+      <c r="C8" s="9" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C9" s="12" t="inlineStr">
+      <c r="C9" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr"/>
+      <c r="C10" s="9" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="inlineStr">
+      <c r="B11" s="10" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C11" s="12" t="inlineStr">
+      <c r="C11" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="10" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr"/>
+      <c r="C12" s="9" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="inlineStr">
+      <c r="B13" s="10" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C13" s="12" t="inlineStr">
+      <c r="C13" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="inlineStr">
+      <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C14" s="12" t="inlineStr">
+      <c r="C14" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="inlineStr">
+      <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C15" s="8" t="inlineStr"/>
+      <c r="C15" s="9" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="inlineStr">
+      <c r="B16" s="10" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C16" s="8" t="inlineStr"/>
+      <c r="C16" s="9" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="inlineStr">
+      <c r="B17" s="10" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="8" t="inlineStr"/>
+      <c r="C17" s="9" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="inlineStr">
+      <c r="B18" s="10" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C18" s="12" t="inlineStr">
+      <c r="C18" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="inlineStr">
+      <c r="B19" s="10" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C19" s="12" t="inlineStr">
+      <c r="C19" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="inlineStr">
+      <c r="B20" s="10" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr"/>
+      <c r="C20" s="9" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="inlineStr">
+      <c r="B21" s="10" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C21" s="8" t="inlineStr"/>
+      <c r="C21" s="9" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="inlineStr">
+      <c r="B22" s="10" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C22" s="8" t="inlineStr"/>
+      <c r="C22" s="9" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="8" t="n">
+      <c r="A23" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="inlineStr">
+      <c r="B23" s="10" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C23" s="8" t="inlineStr"/>
+      <c r="C23" s="9" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="8" t="n">
+      <c r="A24" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="inlineStr">
+      <c r="B24" s="10" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C24" s="12" t="inlineStr">
+      <c r="C24" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="inlineStr">
+      <c r="B25" s="10" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C25" s="12" t="inlineStr">
+      <c r="C25" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="8" t="n">
+      <c r="A26" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="inlineStr">
+      <c r="B26" s="10" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C26" s="12" t="inlineStr">
+      <c r="C26" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="8" t="n">
+      <c r="A27" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="inlineStr">
+      <c r="B27" s="10" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C27" s="12" t="inlineStr">
+      <c r="C27" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="8" t="n">
+      <c r="A28" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="inlineStr">
+      <c r="B28" s="10" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C28" s="8" t="inlineStr"/>
+      <c r="C28" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="8" t="n">
+      <c r="A29" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="inlineStr">
+      <c r="B29" s="10" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C29" s="8" t="inlineStr"/>
+      <c r="C29" s="9" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="8" t="n">
+      <c r="A30" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="inlineStr">
+      <c r="B30" s="10" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C30" s="12" t="inlineStr">
+      <c r="C30" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="8" t="n">
+      <c r="A31" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="inlineStr">
+      <c r="B31" s="10" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C31" s="12" t="inlineStr">
+      <c r="C31" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="8" t="n">
+      <c r="A32" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="inlineStr">
+      <c r="B32" s="10" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C32" s="8" t="inlineStr"/>
+      <c r="C32" s="9" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="8" t="n">
+      <c r="A33" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="inlineStr">
+      <c r="B33" s="10" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="8" t="inlineStr"/>
+      <c r="C33" s="9" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="8" t="n">
+      <c r="A34" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="inlineStr">
+      <c r="B34" s="10" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="8" t="inlineStr"/>
+      <c r="C34" s="9" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="8" t="n">
+      <c r="A35" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="inlineStr">
+      <c r="B35" s="10" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C35" s="12" t="inlineStr">
+      <c r="C35" s="13" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="8" t="n">
+      <c r="A36" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="inlineStr">
+      <c r="B36" s="10" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="8" t="inlineStr"/>
+      <c r="C36" s="9" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="8" t="n">
+      <c r="A37" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C37" s="8" t="inlineStr"/>
+      <c r="C37" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
@@ -972,7 +972,11 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C33" s="9" t="inlineStr"/>
+      <c r="C33" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="9" t="n">
@@ -1009,7 +1013,11 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C36" s="9" t="inlineStr"/>
+      <c r="C36" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
@@ -987,7 +987,11 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C34" s="9" t="inlineStr"/>
+      <c r="C34" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="9" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
@@ -25,6 +25,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Wingdings"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="12"/>
     </font>
@@ -36,10 +40,6 @@
     <font>
       <name val="Calibri"/>
       <sz val="14"/>
-    </font>
-    <font>
-      <name val="Wingdings"/>
-      <sz val="12"/>
     </font>
     <font>
       <sz val="12"/>
@@ -149,22 +149,22 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -181,7 +181,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +530,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C7" sqref="A1:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-12 (11 Oktober 2021 - 17 Oktober 2021).xlsx
@@ -760,7 +760,11 @@
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C17" s="9" t="inlineStr"/>
+      <c r="C17" s="13" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="9" t="n">
